--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B02D912-F9CD-2F4E-88C0-25F36A08510B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="27" r:id="rId1"/>
-    <sheet name="Meal" sheetId="26" r:id="rId2"/>
-    <sheet name="Preheater" sheetId="4" r:id="rId3"/>
-    <sheet name="Calciner" sheetId="25" r:id="rId4"/>
-    <sheet name="Kiln" sheetId="30" r:id="rId5"/>
-    <sheet name="Cooler" sheetId="28" r:id="rId6"/>
-    <sheet name="Mixer" sheetId="29" r:id="rId7"/>
-    <sheet name="Charcoal" sheetId="22" r:id="rId8"/>
-    <sheet name="Syngas" sheetId="21" r:id="rId9"/>
-    <sheet name="Oxygen" sheetId="9" r:id="rId10"/>
-    <sheet name="Electricity" sheetId="10" r:id="rId11"/>
-    <sheet name="Heat" sheetId="16" r:id="rId12"/>
-    <sheet name="CO2 Capture" sheetId="13" r:id="rId13"/>
-    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId14"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId15"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId16"/>
+    <sheet name="Meal" sheetId="31" r:id="rId2"/>
+    <sheet name="Meal-old" sheetId="26" r:id="rId3"/>
+    <sheet name="Preheater" sheetId="4" r:id="rId4"/>
+    <sheet name="Calciner" sheetId="25" r:id="rId5"/>
+    <sheet name="Kiln" sheetId="30" r:id="rId6"/>
+    <sheet name="Cooler" sheetId="28" r:id="rId7"/>
+    <sheet name="Mixer" sheetId="29" r:id="rId8"/>
+    <sheet name="Charcoal" sheetId="22" r:id="rId9"/>
+    <sheet name="Syngas" sheetId="21" r:id="rId10"/>
+    <sheet name="Oxygen" sheetId="9" r:id="rId11"/>
+    <sheet name="Electricity" sheetId="10" r:id="rId12"/>
+    <sheet name="Heat" sheetId="16" r:id="rId13"/>
+    <sheet name="CO2 Capture" sheetId="13" r:id="rId14"/>
+    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId15"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId16"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="182">
   <si>
     <t>combustion</t>
   </si>
@@ -580,12 +580,24 @@
   </si>
   <si>
     <t>hot meal</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Marl</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>calerous marl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -746,8 +758,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1058,16 +1070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85B6956-3A9E-D440-8D2C-361D81F1C528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>127</v>
       </c>
@@ -1125,7 +1137,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="25" t="s">
         <v>120</v>
@@ -1149,7 +1161,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1161,7 +1173,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
@@ -1221,7 +1233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>123</v>
@@ -1239,10 +1251,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>121</v>
       </c>
@@ -1265,7 +1277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="23" t="s">
         <v>3</v>
@@ -1284,7 +1296,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="23"/>
       <c r="C13" s="8"/>
@@ -1293,7 +1305,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1316,14 +1328,14 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>126</v>
       </c>
@@ -1347,7 +1359,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="14" t="s">
         <v>70</v>
@@ -1369,7 +1381,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="14" t="s">
         <v>70</v>
@@ -1391,7 +1403,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="8" t="s">
         <v>52</v>
@@ -1411,7 +1423,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
         <v>35</v>
@@ -1431,7 +1443,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>125</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
         <v>51</v>
       </c>
@@ -1471,7 +1483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -1491,7 +1503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
         <v>53</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>52</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
         <v>35</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -1589,16 +1601,593 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1632,7 +2221,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -1660,7 +2249,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1688,7 +2277,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1716,7 +2305,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +2331,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1768,7 +2357,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -1799,27 +2388,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +2440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
@@ -1871,7 +2460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1891,7 +2480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
@@ -1911,7 +2500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>101</v>
       </c>
@@ -1931,7 +2520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1956,17 +2545,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -1998,7 +2587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="25" t="s">
         <v>60</v>
@@ -2022,7 +2611,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="25" t="s">
         <v>35</v>
@@ -2046,7 +2635,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="25" t="s">
         <v>60</v>
@@ -2070,7 +2659,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>52</v>
       </c>
@@ -2090,7 +2679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2113,7 +2702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2134,7 +2723,7 @@
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>101</v>
       </c>
@@ -2154,7 +2743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2179,27 +2768,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -2231,7 +2820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
@@ -2257,7 +2846,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
@@ -2280,7 +2869,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2300,7 +2889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
@@ -2320,7 +2909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>40</v>
       </c>
@@ -2343,7 +2932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
@@ -2360,7 +2949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>118</v>
       </c>
@@ -2380,7 +2969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>60</v>
       </c>
@@ -2397,7 +2986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>75</v>
       </c>
@@ -2420,7 +3009,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="19" t="s">
         <v>99</v>
@@ -2444,27 +3033,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9507DF2-D8F8-0B40-8678-5267C4E8FA82}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -2496,7 +3085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
@@ -2522,7 +3111,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
@@ -2545,7 +3134,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2565,7 +3154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>56</v>
       </c>
@@ -2585,7 +3174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>40</v>
       </c>
@@ -2608,7 +3197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
@@ -2625,7 +3214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>118</v>
       </c>
@@ -2645,7 +3234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>60</v>
       </c>
@@ -2662,7 +3251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>75</v>
       </c>
@@ -2685,7 +3274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="19" t="s">
         <v>99</v>
@@ -2709,17 +3298,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37DD3A-244E-E941-BEB9-43BF9377FFBD}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -2751,7 +3340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
@@ -2777,7 +3366,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>118</v>
       </c>
@@ -2797,7 +3386,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>40</v>
       </c>
@@ -2820,7 +3409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -2844,23 +3433,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -2892,7 +3481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
@@ -2912,7 +3501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>68</v>
       </c>
@@ -2932,7 +3521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>80</v>
       </c>
@@ -2952,7 +3541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -2969,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>68</v>
       </c>
@@ -2989,7 +3578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>98</v>
       </c>
@@ -3006,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -3032,16 +3621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB686B0C-86C2-1A45-8F88-C87791739E6C}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>131</v>
       </c>
@@ -3099,7 +3688,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>132</v>
@@ -3108,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>2</v>
@@ -3117,13 +3706,13 @@
         <v>25</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>132</v>
@@ -3132,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>2</v>
@@ -3141,159 +3730,87 @@
         <v>25</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="B7" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="E8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3303,16 +3820,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -3343,9 +3860,8 @@
       <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>131</v>
       </c>
@@ -3353,445 +3869,219 @@
         <v>132</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>2</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="G3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>4</v>
+      <c r="G5" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="24" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3801,19 +4091,517 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A68108-677C-7442-8F2C-93370E017284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -3845,7 +4633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>131</v>
       </c>
@@ -3871,7 +4659,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>177</v>
       </c>
@@ -3891,7 +4679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
         <v>177</v>
       </c>
@@ -3911,7 +4699,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -3934,7 +4722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>144</v>
       </c>
@@ -3951,7 +4739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>144</v>
       </c>
@@ -3968,7 +4756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>141</v>
       </c>
@@ -3988,7 +4776,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>146</v>
       </c>
@@ -4005,7 +4793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>146</v>
       </c>
@@ -4022,7 +4810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>175</v>
       </c>
@@ -4045,7 +4833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>125</v>
       </c>
@@ -4068,7 +4856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="23" t="s">
         <v>51</v>
@@ -4087,7 +4875,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="23" t="s">
         <v>53</v>
@@ -4108,7 +4896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="23" t="s">
         <v>53</v>
@@ -4129,7 +4917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="23" t="s">
         <v>52</v>
@@ -4148,7 +4936,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="23" t="s">
         <v>35</v>
@@ -4167,7 +4955,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4190,7 +4978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
@@ -4207,7 +4995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>101</v>
       </c>
@@ -4227,456 +5015,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>151</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5605D1-41B8-A749-9ED2-9E81AD098485}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>156</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -4697,16 +5039,462 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F8855C-A444-3A4D-BCF8-04AB281EE68E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -4738,7 +5526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>154</v>
       </c>
@@ -4764,7 +5552,7 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="25" t="s">
         <v>155</v>
@@ -4788,7 +5576,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -4811,7 +5599,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>162</v>
       </c>
@@ -4831,7 +5619,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>162</v>
       </c>
@@ -4851,7 +5639,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4874,7 +5662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
@@ -4891,7 +5679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -4911,7 +5699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>163</v>
@@ -4926,266 +5714,6 @@
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50DDBB-9270-6147-9D9C-F016981BB3EA}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5195,21 +5723,281 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -5241,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -5264,7 +6052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5287,7 +6075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +6092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5327,7 +6115,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="23" t="s">
         <v>52</v>
@@ -5346,7 +6134,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5369,7 +6157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>106</v>
       </c>
@@ -5389,7 +6177,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>101</v>
       </c>
@@ -5409,7 +6197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>108</v>
@@ -5424,583 +6212,6 @@
         <v>1</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="22" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="111">
   <si>
     <t>combustion</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>meal2clinker</t>
+  </si>
+  <si>
+    <t>Fuel</t>
   </si>
 </sst>
 </file>
@@ -1810,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2085,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>82</v>
@@ -2112,15 +2115,17 @@
         <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -2131,13 +2136,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>36</v>
@@ -2146,10 +2151,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>31</v>
@@ -2158,22 +2163,20 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -2184,99 +2187,80 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
+      <c r="C20" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>83</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="111">
   <si>
     <t>combustion</t>
   </si>
@@ -815,7 +815,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1813,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G17"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2045,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>45</v>
@@ -2058,64 +2058,62 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="I13" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -2124,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,13 +2134,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>36</v>
@@ -2151,10 +2149,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>31</v>
@@ -2163,20 +2161,22 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
@@ -2187,80 +2187,99 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="E21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="E22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3222,10 +3241,13 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -3668,7 +3690,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3715,8 +3737,8 @@
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
+      <c r="D2" t="s">
+        <v>81</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -3760,7 +3782,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -3823,7 +3845,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -3863,7 +3885,7 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>1</v>

--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DADC5B-00F3-D54A-9114-18EE265982E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="3"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="27" r:id="rId1"/>
     <sheet name="Meal" sheetId="31" r:id="rId2"/>
-    <sheet name="Meal-old" sheetId="26" r:id="rId3"/>
-    <sheet name="Kiln System" sheetId="32" r:id="rId4"/>
-    <sheet name="Preheater" sheetId="4" r:id="rId5"/>
-    <sheet name="Calciner" sheetId="25" r:id="rId6"/>
-    <sheet name="Kiln" sheetId="30" r:id="rId7"/>
-    <sheet name="Cooler" sheetId="28" r:id="rId8"/>
-    <sheet name="Mixer" sheetId="29" r:id="rId9"/>
+    <sheet name="Kiln System" sheetId="32" r:id="rId3"/>
+    <sheet name="Preheater" sheetId="4" r:id="rId4"/>
+    <sheet name="Calciner" sheetId="25" r:id="rId5"/>
+    <sheet name="Kiln" sheetId="30" r:id="rId6"/>
+    <sheet name="Cooler" sheetId="28" r:id="rId7"/>
+    <sheet name="Mixer" sheetId="29" r:id="rId8"/>
+    <sheet name="Cement Use" sheetId="33" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="117">
   <si>
     <t>combustion</t>
   </si>
@@ -220,21 +221,6 @@
     <t>ground meal</t>
   </si>
   <si>
-    <t>SiO2</t>
-  </si>
-  <si>
-    <t>AlO2</t>
-  </si>
-  <si>
-    <t>FeO2</t>
-  </si>
-  <si>
-    <t>MGCO3</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>meal mill use</t>
   </si>
   <si>
@@ -371,12 +357,45 @@
   </si>
   <si>
     <t>Fuel</t>
+  </si>
+  <si>
+    <t>downstream removed CO2</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>iron ore</t>
+  </si>
+  <si>
+    <t>bauxite</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
+  </si>
+  <si>
+    <t>Bauxite</t>
+  </si>
+  <si>
+    <t>unspecified minerals</t>
+  </si>
+  <si>
+    <t>Unspecified Mineral</t>
+  </si>
+  <si>
+    <t>calcination CO2</t>
+  </si>
+  <si>
+    <t>CONSUMED calcinatin CO2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -499,8 +518,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,16 +830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -852,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -878,7 +897,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
         <v>47</v>
@@ -902,7 +921,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -914,7 +933,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -937,7 +956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
@@ -954,7 +973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -974,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>50</v>
@@ -992,10 +1011,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>48</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
         <v>3</v>
@@ -1037,7 +1056,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6"/>
@@ -1046,7 +1065,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1069,14 +1088,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>53</v>
       </c>
@@ -1100,7 +1119,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>43</v>
@@ -1122,7 +1141,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
         <v>43</v>
@@ -1144,7 +1163,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>40</v>
@@ -1164,7 +1183,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
@@ -1184,7 +1203,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>52</v>
       </c>
@@ -1207,7 +1226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>39</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
@@ -1244,7 +1263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -1342,16 +1361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1383,7 +1402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -1409,7 +1428,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>59</v>
@@ -1418,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>2</v>
@@ -1427,13 +1446,13 @@
         <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
@@ -1442,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>2</v>
@@ -1451,87 +1470,183 @@
         <v>24</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1541,16 +1656,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1582,18 +1701,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
@@ -1602,207 +1721,327 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="G3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="C9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="B17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1812,20 +2051,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1856,34 +2091,36 @@
       <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
@@ -1900,18 +2137,18 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -1920,10 +2157,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1934,7 +2171,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -1943,12 +2180,12 @@
         <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -1963,15 +2200,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -1980,15 +2217,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -1997,18 +2234,18 @@
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>4</v>
@@ -2017,15 +2254,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -2034,86 +2271,90 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>76</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>82</v>
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -2122,31 +2363,29 @@
         <v>7</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>41</v>
@@ -2155,25 +2394,25 @@
         <v>4</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>31</v>
@@ -2182,20 +2421,22 @@
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
@@ -2205,81 +2446,100 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="B22" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="14" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2289,16 +2549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2329,20 +2592,19 @@
       <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2351,16 +2613,15 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -2375,18 +2636,18 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -2395,10 +2656,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2409,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2418,12 +2679,12 @@
         <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -2438,15 +2699,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -2455,15 +2716,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2472,18 +2733,18 @@
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>4</v>
@@ -2492,15 +2753,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -2509,15 +2770,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>1</v>
@@ -2526,73 +2787,64 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -2601,183 +2853,143 @@
         <v>7</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
+      <c r="B18" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B20" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2787,19 +2999,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2831,18 +3043,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2851,15 +3063,14 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="15"/>
+        <v>61</v>
+      </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -2874,18 +3085,18 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -2894,10 +3105,10 @@
         <v>24</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2908,7 +3119,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2917,12 +3128,12 @@
         <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -2937,15 +3148,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -2954,15 +3165,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2971,18 +3182,18 @@
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>4</v>
@@ -2991,15 +3202,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -3008,15 +3219,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>1</v>
@@ -3025,21 +3236,21 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>39</v>
@@ -3054,7 +3265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
@@ -3073,7 +3284,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>41</v>
@@ -3094,7 +3305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
@@ -3115,7 +3326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -3134,7 +3345,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>33</v>
@@ -3153,12 +3364,12 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3176,7 +3387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -3193,12 +3404,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>1</v>
@@ -3213,7 +3424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>78</v>
@@ -3237,19 +3448,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3281,18 +3489,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>82</v>
+      <c r="D2" t="s">
+        <v>76</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -3301,382 +3509,174 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3686,16 +3686,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3727,194 +3736,216 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="I5" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I6" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="B10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3924,16 +3955,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCD23DB-61F8-8843-A107-C2948F457AE0}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3965,217 +3999,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DADC5B-00F3-D54A-9114-18EE265982E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="27" r:id="rId1"/>
     <sheet name="Meal" sheetId="31" r:id="rId2"/>
     <sheet name="Kiln System" sheetId="32" r:id="rId3"/>
-    <sheet name="Preheater" sheetId="4" r:id="rId4"/>
-    <sheet name="Calciner" sheetId="25" r:id="rId5"/>
-    <sheet name="Kiln" sheetId="30" r:id="rId6"/>
-    <sheet name="Cooler" sheetId="28" r:id="rId7"/>
+    <sheet name="Cooler" sheetId="28" r:id="rId4"/>
+    <sheet name="Preheater" sheetId="4" r:id="rId5"/>
+    <sheet name="Calciner" sheetId="25" r:id="rId6"/>
+    <sheet name="Kiln" sheetId="30" r:id="rId7"/>
     <sheet name="Mixer" sheetId="29" r:id="rId8"/>
     <sheet name="Cement Use" sheetId="33" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="119">
   <si>
     <t>combustion</t>
   </si>
@@ -221,9 +220,6 @@
     <t>ground meal</t>
   </si>
   <si>
-    <t>meal mill use</t>
-  </si>
-  <si>
     <t>Out2In</t>
   </si>
   <si>
@@ -296,9 +292,6 @@
     <t>heat in clinker</t>
   </si>
   <si>
-    <t>clinker cooler use</t>
-  </si>
-  <si>
     <t>cement</t>
   </si>
   <si>
@@ -390,12 +383,24 @@
   </si>
   <si>
     <t>CONSUMED calcinatin CO2</t>
+  </si>
+  <si>
+    <t>clinker factory use</t>
+  </si>
+  <si>
+    <t>CONSUMED clinker factory use</t>
+  </si>
+  <si>
+    <t>clinker waste disposal</t>
+  </si>
+  <si>
+    <t>CONSUMED clinker waste disposal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -518,8 +523,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,16 +835,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -871,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -897,7 +902,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
         <v>47</v>
@@ -921,7 +926,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -933,7 +938,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -956,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
@@ -973,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -993,7 +998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>50</v>
@@ -1011,10 +1016,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>48</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
         <v>3</v>
@@ -1056,7 +1061,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6"/>
@@ -1065,7 +1070,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1088,14 +1093,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>53</v>
       </c>
@@ -1119,7 +1124,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>43</v>
@@ -1141,7 +1146,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
         <v>43</v>
@@ -1163,7 +1168,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>40</v>
@@ -1183,7 +1188,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
@@ -1203,7 +1208,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
@@ -1283,7 +1288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>33</v>
       </c>
@@ -1317,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1337,7 +1342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -1361,16 +1366,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -1428,7 +1433,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>59</v>
@@ -1437,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>2</v>
@@ -1446,13 +1451,13 @@
         <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
@@ -1461,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>2</v>
@@ -1470,13 +1475,13 @@
         <v>24</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>59</v>
@@ -1485,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>2</v>
@@ -1494,13 +1499,13 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>59</v>
@@ -1509,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>2</v>
@@ -1518,13 +1523,13 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>59</v>
@@ -1533,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>2</v>
@@ -1542,13 +1547,13 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>59</v>
@@ -1557,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>2</v>
@@ -1566,13 +1571,13 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
@@ -1609,44 +1614,6 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1656,20 +1623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1701,12 +1668,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>1</v>
@@ -1721,13 +1688,13 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
@@ -1744,10 +1711,10 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1758,27 +1725,27 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>4</v>
@@ -1787,15 +1754,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>1</v>
@@ -1804,9 +1771,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>1</v>
@@ -1821,15 +1788,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>2</v>
@@ -1838,9 +1805,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>59</v>
@@ -1849,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>1</v>
@@ -1858,18 +1825,18 @@
         <v>38</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>1</v>
@@ -1887,7 +1854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
         <v>41</v>
@@ -1908,7 +1875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
         <v>41</v>
@@ -1929,7 +1896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>40</v>
@@ -1948,7 +1915,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>33</v>
@@ -1967,12 +1934,12 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1990,7 +1957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
@@ -2004,44 +1971,6 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2051,16 +1980,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2091,20 +2020,19 @@
       <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>99</v>
+      <c r="D2" t="s">
+        <v>75</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2113,433 +2041,208 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+      <c r="D3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="12" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2549,19 +2252,517 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2593,18 +2794,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2613,15 +2814,15 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -2636,30 +2837,30 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2670,21 +2871,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -2699,15 +2900,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -2716,15 +2917,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -2733,18 +2934,18 @@
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>4</v>
@@ -2753,15 +2954,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -2770,15 +2971,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>1</v>
@@ -2787,18 +2988,18 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>1</v>
@@ -2816,7 +3017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
@@ -2835,7 +3036,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>41</v>
@@ -2856,7 +3057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
@@ -2877,7 +3078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -2896,7 +3097,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>33</v>
@@ -2915,12 +3116,12 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -2938,7 +3139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -2955,18 +3156,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2</v>
@@ -2975,10 +3176,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -2998,20 +3199,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3043,18 +3244,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -3063,14 +3264,14 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -3085,30 +3286,30 @@
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3119,21 +3320,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -3148,15 +3349,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -3165,15 +3366,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -3182,18 +3383,18 @@
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
       <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>4</v>
@@ -3202,15 +3403,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -3219,15 +3420,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>1</v>
@@ -3236,18 +3437,18 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>2</v>
@@ -3265,7 +3466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
@@ -3284,7 +3485,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>41</v>
@@ -3305,7 +3506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
@@ -3326,7 +3527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -3345,7 +3546,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>33</v>
@@ -3364,12 +3565,12 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -3387,7 +3588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -3404,18 +3605,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2</v>
@@ -3424,10 +3625,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -3439,244 +3640,6 @@
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3686,25 +3649,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3736,18 +3699,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
@@ -3756,61 +3719,61 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>4</v>
@@ -3819,21 +3782,21 @@
         <v>45</v>
       </c>
       <c r="H5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="C6" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>4</v>
@@ -3842,21 +3805,21 @@
         <v>45</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>2</v>
@@ -3865,18 +3828,18 @@
         <v>38</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3894,7 +3857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -3911,18 +3874,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -3931,10 +3894,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
@@ -3955,19 +3918,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCD23DB-61F8-8843-A107-C2948F457AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3999,15 +3962,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>

--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35059BF9-8C4F-124D-A5F9-2A2BC8665D5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="3"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="27" r:id="rId1"/>
@@ -27,18 +28,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="117">
   <si>
     <t>combustion</t>
   </si>
@@ -377,12 +372,6 @@
   </si>
   <si>
     <t>Unspecified Mineral</t>
-  </si>
-  <si>
-    <t>calcination CO2</t>
-  </si>
-  <si>
-    <t>CONSUMED calcinatin CO2</t>
   </si>
   <si>
     <t>clinker factory use</t>
@@ -400,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -523,8 +512,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,16 +824,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -876,7 +865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -902,7 +891,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
         <v>47</v>
@@ -926,7 +915,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -938,7 +927,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -961,7 +950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
@@ -978,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>46</v>
       </c>
@@ -998,7 +987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>50</v>
@@ -1016,10 +1005,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>48</v>
       </c>
@@ -1042,7 +1031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
         <v>3</v>
@@ -1061,7 +1050,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="13"/>
       <c r="C13" s="6"/>
@@ -1070,7 +1059,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1093,14 +1082,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>53</v>
       </c>
@@ -1124,7 +1113,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
         <v>43</v>
@@ -1146,7 +1135,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
         <v>43</v>
@@ -1168,7 +1157,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>40</v>
@@ -1188,7 +1177,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
@@ -1208,7 +1197,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>52</v>
       </c>
@@ -1231,7 +1220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>39</v>
       </c>
@@ -1248,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>41</v>
       </c>
@@ -1288,7 +1277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
@@ -1305,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>33</v>
       </c>
@@ -1322,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1342,7 +1331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>10</v>
@@ -1366,16 +1355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1407,7 +1396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -1433,7 +1422,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15" t="s">
         <v>59</v>
@@ -1457,7 +1446,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
         <v>59</v>
@@ -1481,7 +1470,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15" t="s">
         <v>59</v>
@@ -1505,7 +1494,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15" t="s">
         <v>59</v>
@@ -1529,7 +1518,7 @@
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
         <v>59</v>
@@ -1553,7 +1542,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15" t="s">
         <v>59</v>
@@ -1577,7 +1566,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1600,7 +1589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
@@ -1623,20 +1612,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -1694,7 +1683,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
@@ -1714,7 +1703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1737,7 +1726,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>65</v>
       </c>
@@ -1748,119 +1737,129 @@
         <v>70</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
       <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="I6" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>32</v>
@@ -1869,108 +1868,47 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1980,16 +1918,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2021,7 +1959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>75</v>
       </c>
@@ -2047,7 +1985,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="15" t="s">
         <v>76</v>
@@ -2071,7 +2009,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2094,7 +2032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>83</v>
       </c>
@@ -2114,7 +2052,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>83</v>
       </c>
@@ -2134,7 +2072,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2157,7 +2095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2174,7 +2112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
@@ -2194,16 +2132,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
@@ -2212,7 +2150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -2220,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>2</v>
@@ -2229,15 +2167,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -2252,16 +2190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2232,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -2321,7 +2259,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>59</v>
       </c>
@@ -2341,7 +2279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -2361,7 +2299,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2384,7 +2322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -2401,7 +2339,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -2418,7 +2356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>62</v>
       </c>
@@ -2438,7 +2376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -2455,7 +2393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -2472,7 +2410,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>95</v>
       </c>
@@ -2495,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2521,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>69</v>
       </c>
@@ -2544,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>52</v>
       </c>
@@ -2567,7 +2505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>39</v>
@@ -2586,7 +2524,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>41</v>
@@ -2607,7 +2545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>41</v>
@@ -2628,7 +2566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
         <v>40</v>
@@ -2647,7 +2585,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>33</v>
@@ -2666,7 +2604,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2689,7 +2627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
@@ -2706,7 +2644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -2726,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>73</v>
@@ -2750,19 +2688,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2794,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -2820,7 +2759,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>97</v>
       </c>
@@ -2840,7 +2779,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>97</v>
       </c>
@@ -2860,7 +2799,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2883,7 +2822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -2900,7 +2839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -2917,7 +2856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>62</v>
       </c>
@@ -2937,7 +2876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -2954,7 +2893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -2971,7 +2910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>95</v>
       </c>
@@ -2994,7 +2933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
@@ -3017,7 +2956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
@@ -3036,7 +2975,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>41</v>
@@ -3057,7 +2996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
@@ -3078,7 +3017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -3097,7 +3036,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>33</v>
@@ -3116,7 +3055,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -3156,7 +3095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -3176,7 +3115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>72</v>
@@ -3200,19 +3139,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3244,7 +3183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>58</v>
       </c>
@@ -3269,7 +3208,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>74</v>
       </c>
@@ -3289,7 +3228,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>74</v>
       </c>
@@ -3309,7 +3248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3332,7 +3271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -3349,7 +3288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -3366,7 +3305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>62</v>
       </c>
@@ -3386,7 +3325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -3403,7 +3342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -3420,7 +3359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>95</v>
       </c>
@@ -3443,7 +3382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>52</v>
       </c>
@@ -3466,7 +3405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
         <v>39</v>
@@ -3485,7 +3424,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>41</v>
@@ -3506,7 +3445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
@@ -3527,7 +3466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
         <v>40</v>
@@ -3546,7 +3485,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>33</v>
@@ -3565,7 +3504,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3588,7 +3527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -3625,7 +3564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>77</v>
@@ -3649,25 +3588,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3699,7 +3638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>85</v>
       </c>
@@ -3725,7 +3664,7 @@
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>84</v>
       </c>
@@ -3745,7 +3684,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>84</v>
       </c>
@@ -3765,7 +3704,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -3788,7 +3727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>88</v>
       </c>
@@ -3811,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>84</v>
       </c>
@@ -3834,7 +3773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3857,7 +3796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -3894,7 +3833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>91</v>
@@ -3918,19 +3857,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3962,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>84</v>
       </c>

--- a/data/cement/cement_calcs.xlsx
+++ b/data/cement/cement_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35059BF9-8C4F-124D-A5F9-2A2BC8665D5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196A7F0A-B490-764D-825C-555F3A905AC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="460" windowWidth="21380" windowHeight="17540" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="27" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="116">
   <si>
     <t>combustion</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>cement kiln use</t>
-  </si>
-  <si>
-    <t>cool clinker</t>
   </si>
   <si>
     <t>lost clinker</t>
@@ -1431,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>2</v>
@@ -1440,7 +1437,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -1455,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>2</v>
@@ -1464,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -1479,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>2</v>
@@ -1488,7 +1485,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -1503,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>2</v>
@@ -1512,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -1527,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>2</v>
@@ -1536,7 +1533,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1551,16 +1548,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>111</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>112</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -1615,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1677,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1771,7 +1768,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>76</v>
@@ -1979,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -1994,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>1</v>
@@ -2003,7 +2000,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -2020,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -2029,18 +2026,18 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -2049,18 +2046,18 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -2069,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2123,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
@@ -2135,13 +2132,13 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>2</v>
@@ -2169,13 +2166,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>115</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -2243,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
@@ -2347,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -2401,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -2412,7 +2409,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
@@ -2427,7 +2424,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
@@ -2438,7 +2435,7 @@
         <v>68</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>1</v>
@@ -2487,7 +2484,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>1</v>
@@ -2609,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2649,7 +2646,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>1</v>
@@ -2738,7 +2735,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>2</v>
@@ -2761,7 +2758,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -2781,7 +2778,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -2847,7 +2844,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -2901,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -2912,7 +2909,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
@@ -2927,7 +2924,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
@@ -3296,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>4</v>
@@ -3350,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>4</v>
@@ -3361,7 +3358,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>4</v>
@@ -3376,7 +3373,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>4</v>
@@ -3591,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3640,16 +3637,16 @@
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
@@ -3666,13 +3663,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>2</v>
@@ -3681,18 +3678,18 @@
         <v>24</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>2</v>
@@ -3701,18 +3698,18 @@
         <v>24</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>4</v>
@@ -3721,7 +3718,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>2</v>
@@ -3729,13 +3726,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>4</v>
@@ -3744,7 +3741,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>2</v>
@@ -3752,13 +3749,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>2</v>
@@ -3767,7 +3764,7 @@
         <v>38</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>4</v>
@@ -3778,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3818,13 +3815,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>2</v>
@@ -3836,7 +3833,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
@@ -3903,13 +3900,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
